--- a/ObedienceMobile/ObedienceMobile/Res/Template.xlsx
+++ b/ObedienceMobile/ObedienceMobile/Res/Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspace\Obedience\ObedienceX\ObedienceMobile\ObedienceMobile\Res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Obedience\ObedienceX\ObedienceMobile\ObedienceMobile\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F4057-8D92-4A6E-91F3-2D36F17B4DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="557"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ОБ-0 Сводная" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ОБ-0 Сводная'!$A$2:$Z$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ВС1!$A$1:$L$44</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -275,8 +276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +538,30 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -626,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,6 +773,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,7 +855,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,7 +895,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10331" name="Рисунок 2"/>
+        <xdr:cNvPr id="10331" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B280000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1005,6 +1045,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1040,6 +1097,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1215,7 +1289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1225,7 +1299,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1446,19 +1520,19 @@
       <c r="K4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="10">
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="80">
         <f>SUM(L5:V5)-W4</f>
         <v>0</v>
       </c>
@@ -1466,7 +1540,7 @@
         <f>IF(X4&gt;=256,"Отлично",IF(AND(X4&gt;=224,X4&lt;256),"Очень хорошо",IF(AND(X4&gt;=192,X4&lt;224),"Хорошо",IF(AND(X4&lt;192),"---"))))</f>
         <v>---</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="79">
         <f>RANK(X4,X$4:X$220)</f>
         <v>1</v>
       </c>
@@ -2107,7 +2181,7 @@
       <c r="Z26" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z12">
+  <autoFilter ref="A2:Z12" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
@@ -2124,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2146,295 +2220,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:13" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="49" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
       <c r="M15" s="48">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="49" t="str">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="51" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,4)</f>
         <v>кличка</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
     </row>
     <row r="17" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="49" t="str">
+      <c r="B17" s="51" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,3)</f>
         <v>порода</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="71" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="49" t="str">
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="51" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,8)</f>
         <v>000</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
     </row>
     <row r="18" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="67" t="str">
+      <c r="B18" s="69" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,5)</f>
         <v>сука</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="68">
+      <c r="E18" s="55"/>
+      <c r="F18" s="70">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,6)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69" t="s">
+      <c r="G18" s="70"/>
+      <c r="H18" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70" t="str">
+      <c r="I18" s="71"/>
+      <c r="J18" s="72" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,9)</f>
         <v>000</v>
       </c>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2449,17 +2523,17 @@
       <c r="AB18" s="16"/>
     </row>
     <row r="19" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="67" t="str">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="69" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,7)</f>
         <v>000</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -2480,23 +2554,23 @@
       <c r="AB19" s="16"/>
     </row>
     <row r="20" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="62" t="str">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="64" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,11)</f>
         <v>ФИО</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
@@ -2511,98 +2585,98 @@
       <c r="AB20" s="16"/>
     </row>
     <row r="21" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="64" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="49" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="67">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="53" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="62" t="str">
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="64" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,25)</f>
         <v>---</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
@@ -2617,40 +2691,40 @@
       <c r="AA25" s="16"/>
     </row>
     <row r="26" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="59" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
@@ -2665,77 +2739,77 @@
       <c r="AA27" s="16"/>
     </row>
     <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
     </row>
     <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
     </row>
     <row r="32" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="53" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
       <c r="O32" s="15"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
@@ -2750,72 +2824,72 @@
       <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="53" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
     </row>
     <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="56" t="s">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57">
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59">
         <v>44814</v>
       </c>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
@@ -2848,59 +2922,59 @@
       <c r="A42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="49" t="str">
+      <c r="B42" s="51" t="str">
         <f>B17</f>
         <v>порода</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="49" t="str">
+      <c r="B43" s="51" t="str">
         <f>E16</f>
         <v>кличка</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
       <c r="I43" s="25" t="str">
         <f>B18</f>
         <v>сука</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51" t="str">
+      <c r="B44" s="52"/>
+      <c r="C44" s="53" t="str">
         <f>D19</f>
         <v>000</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="50" t="s">
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="50"/>
-      <c r="H44" s="52" t="str">
+      <c r="G44" s="52"/>
+      <c r="H44" s="54" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,10)</f>
         <v>ФИО</v>
       </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
       <c r="O44" s="20"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>

--- a/ObedienceMobile/ObedienceMobile/Res/Template.xlsx
+++ b/ObedienceMobile/ObedienceMobile/Res/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Obedience\ObedienceX\ObedienceMobile\ObedienceMobile\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F4057-8D92-4A6E-91F3-2D36F17B4DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E60FC7-508F-434B-A550-11B867E1B690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,9 +677,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,8 +776,80 @@
     <xf numFmtId="4" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,76 +858,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,10 +1296,10 @@
   <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1309,11 +1309,11 @@
     <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="43" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="43" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="42" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="42" customWidth="1"/>
     <col min="10" max="11" width="10.7109375" style="1" customWidth="1"/>
     <col min="12" max="22" width="12.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="15.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" style="1" customWidth="1"/>
@@ -1322,37 +1322,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="L1" s="29">
+      <c r="L1" s="28">
         <v>1</v>
       </c>
-      <c r="M1" s="29">
+      <c r="M1" s="28">
         <v>2</v>
       </c>
-      <c r="N1" s="29">
+      <c r="N1" s="28">
         <v>3</v>
       </c>
-      <c r="O1" s="29">
+      <c r="O1" s="28">
         <v>4</v>
       </c>
-      <c r="P1" s="29">
+      <c r="P1" s="28">
         <v>5</v>
       </c>
-      <c r="Q1" s="29">
+      <c r="Q1" s="28">
         <v>6</v>
       </c>
-      <c r="R1" s="29">
+      <c r="R1" s="28">
         <v>7</v>
       </c>
-      <c r="S1" s="29">
+      <c r="S1" s="28">
         <v>8</v>
       </c>
-      <c r="T1" s="29">
+      <c r="T1" s="28">
         <v>9</v>
       </c>
-      <c r="U1" s="29">
+      <c r="U1" s="28">
         <v>10</v>
       </c>
-      <c r="V1" s="29">
+      <c r="V1" s="28">
         <v>11</v>
       </c>
     </row>
@@ -1375,13 +1375,13 @@
       <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1390,37 +1390,37 @@
       <c r="K2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="W2" s="6" t="s">
@@ -1443,42 +1443,42 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <v>2</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="28">
         <v>2</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>2</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>2</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>2</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>2</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="28">
         <v>2</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="28">
         <v>2</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="28">
         <v>2</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="28">
         <v>2</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <v>2</v>
       </c>
       <c r="W3" s="6"/>
@@ -1502,16 +1502,16 @@
       <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>0</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="44" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1520,27 +1520,27 @@
       <c r="K4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="80">
-        <f>SUM(L5:V5)-W4</f>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="51">
+        <f>IF(W5="",SUM(L5:V5)-W4,0)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="2" t="str">
         <f>IF(X4&gt;=256,"Отлично",IF(AND(X4&gt;=224,X4&lt;256),"Очень хорошо",IF(AND(X4&gt;=192,X4&lt;224),"Хорошо",IF(AND(X4&lt;192),"---"))))</f>
         <v>---</v>
       </c>
-      <c r="Z4" s="79">
+      <c r="Z4" s="50">
         <f>RANK(X4,X$4:X$220)</f>
         <v>1</v>
       </c>
@@ -1551,634 +1551,634 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="30">
+      <c r="L5" s="29">
         <f>L4*L$3</f>
         <v>0</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="29">
         <f t="shared" ref="M5:V5" si="0">M4*M$3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="29">
         <f t="shared" ref="U5" si="1">U4*U$3</f>
         <v>0</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="9"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:26" s="41" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="40"/>
-    </row>
-    <row r="7" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40"/>
-    </row>
-    <row r="8" spans="1:26" s="41" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="40"/>
-    </row>
-    <row r="9" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="40"/>
-    </row>
-    <row r="10" spans="1:26" s="41" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="40"/>
-    </row>
-    <row r="11" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="40"/>
-    </row>
-    <row r="12" spans="1:26" s="41" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="40"/>
-    </row>
-    <row r="13" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="39"/>
-    </row>
-    <row r="14" spans="1:26" s="41" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="40"/>
-    </row>
-    <row r="15" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="39"/>
-    </row>
-    <row r="16" spans="1:26" s="41" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="40"/>
-    </row>
-    <row r="17" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="39"/>
-    </row>
-    <row r="18" spans="1:26" s="41" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="40"/>
-    </row>
-    <row r="19" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="39"/>
-    </row>
-    <row r="20" spans="1:26" s="41" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="40"/>
-    </row>
-    <row r="21" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="39"/>
-    </row>
-    <row r="22" spans="1:26" s="41" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="40"/>
-    </row>
-    <row r="23" spans="1:26" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="39"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" s="40" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
+    </row>
+    <row r="7" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="39"/>
+    </row>
+    <row r="8" spans="1:26" s="40" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="39"/>
+    </row>
+    <row r="9" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="39"/>
+    </row>
+    <row r="10" spans="1:26" s="40" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="39"/>
+    </row>
+    <row r="11" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="39"/>
+    </row>
+    <row r="12" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="39"/>
+    </row>
+    <row r="13" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38"/>
+    </row>
+    <row r="14" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="39"/>
+    </row>
+    <row r="15" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="38"/>
+    </row>
+    <row r="16" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="39"/>
+    </row>
+    <row r="17" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="38"/>
+    </row>
+    <row r="18" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="39"/>
+    </row>
+    <row r="19" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+    </row>
+    <row r="20" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="39"/>
+    </row>
+    <row r="21" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="39"/>
+    </row>
+    <row r="23" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="38"/>
     </row>
     <row r="24" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="39"/>
     </row>
     <row r="25" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="41"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="40"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:Z12" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -2211,813 +2211,808 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="13" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="13" customWidth="1"/>
-    <col min="4" max="12" width="10.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="13" customWidth="1"/>
-    <col min="14" max="28" width="0" style="13" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="13" hidden="1"/>
+    <col min="1" max="1" width="13.42578125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" style="12" customWidth="1"/>
+    <col min="4" max="12" width="10.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="12" customWidth="1"/>
+    <col min="14" max="28" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="12" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-    </row>
-    <row r="4" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-    </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-    </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="78" t="s">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-    </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="78" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="51" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="48">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="47">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="51" t="str">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="60" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,4)</f>
         <v>кличка</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="51" t="str">
+      <c r="B17" s="60" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,3)</f>
         <v>порода</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="73" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="51" t="str">
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="60" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,8)</f>
         <v>000</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="69" t="str">
+      <c r="B18" s="59" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,5)</f>
         <v>сука</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="70">
+      <c r="E18" s="57"/>
+      <c r="F18" s="61">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,6)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="71" t="s">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72" t="str">
+      <c r="I18" s="62"/>
+      <c r="J18" s="63" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,9)</f>
         <v>000</v>
       </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
     </row>
     <row r="19" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="69" t="str">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,7)</f>
         <v>000</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
     </row>
     <row r="20" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="64" t="str">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="65" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,11)</f>
         <v>ФИО</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
     </row>
     <row r="21" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="51" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="66" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="51" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="68">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="55" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="64" t="str">
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="65" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,25)</f>
         <v>---</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
     </row>
     <row r="26" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="61" t="s">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
     </row>
     <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="32" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="55" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
     </row>
     <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
     </row>
     <row r="35" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="55" t="s">
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
     </row>
     <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="58" t="s">
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59">
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="75">
         <v>44814</v>
       </c>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="17"/>
     </row>
     <row r="41" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="51" t="str">
+      <c r="B42" s="60" t="str">
         <f>B17</f>
         <v>порода</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="51" t="str">
+      <c r="B43" s="60" t="str">
         <f>E16</f>
         <v>кличка</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="25" t="str">
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="24" t="str">
         <f>B18</f>
         <v>сука</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53" t="str">
+      <c r="B44" s="77"/>
+      <c r="C44" s="78" t="str">
         <f>D19</f>
         <v>000</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="52" t="s">
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="54" t="str">
+      <c r="G44" s="77"/>
+      <c r="H44" s="79" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,10)</f>
         <v>ФИО</v>
       </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+      <c r="A45" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A31:L31"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="B17:F17"/>
@@ -3034,26 +3029,31 @@
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.6692913385826772" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ObedienceMobile/ObedienceMobile/Res/Template.xlsx
+++ b/ObedienceMobile/ObedienceMobile/Res/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Obedience\ObedienceX\ObedienceMobile\ObedienceMobile\Res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Obedience\ObedienceX\ObedienceMobile\ObedienceMobile\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E60FC7-508F-434B-A550-11B867E1B690}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EF9023-F214-485A-B7E6-6B374825E49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ОБ-0 Сводная" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">ВС1!$A$1:$L$44</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -277,6 +288,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -647,6 +661,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -675,12 +702,6 @@
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,9 +736,6 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,16 +788,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +882,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,67 +1323,67 @@
   <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="Z4" sqref="X4:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="42" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="42" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="22" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="39" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12" max="22" width="12.44140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
     <col min="27" max="39" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="40" max="16384" width="9.109375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="L1" s="28">
+    <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L1" s="26">
         <v>1</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="26">
         <v>2</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="26">
         <v>3</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="26">
         <v>4</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="26">
         <v>5</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="26">
         <v>6</v>
       </c>
-      <c r="R1" s="28">
+      <c r="R1" s="26">
         <v>7</v>
       </c>
-      <c r="S1" s="28">
+      <c r="S1" s="26">
         <v>8</v>
       </c>
-      <c r="T1" s="28">
+      <c r="T1" s="26">
         <v>9</v>
       </c>
-      <c r="U1" s="28">
+      <c r="U1" s="26">
         <v>10</v>
       </c>
-      <c r="V1" s="28">
+      <c r="V1" s="26">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1375,13 +1402,13 @@
       <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="40" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1390,37 +1417,37 @@
       <c r="K2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="26" t="s">
         <v>60</v>
       </c>
       <c r="W2" s="6" t="s">
@@ -1436,49 +1463,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="28">
+      <c r="L3" s="26">
         <v>2</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="26">
         <v>2</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="26">
         <v>2</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="26">
         <v>2</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="26">
         <v>2</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="26">
         <v>2</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="26">
         <v>2</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="26">
         <v>2</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="26">
         <v>2</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="26">
         <v>2</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="26">
         <v>2</v>
       </c>
       <c r="W3" s="6"/>
@@ -1486,7 +1513,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1502,37 +1529,37 @@
       <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="41" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="51">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="48">
         <f>IF(W5="",SUM(L5:V5)-W4,0)</f>
         <v>0</v>
       </c>
@@ -1540,645 +1567,645 @@
         <f>IF(X4&gt;=256,"Отлично",IF(AND(X4&gt;=224,X4&lt;256),"Очень хорошо",IF(AND(X4&gt;=192,X4&lt;224),"Хорошо",IF(AND(X4&lt;192),"---"))))</f>
         <v>---</v>
       </c>
-      <c r="Z4" s="50">
+      <c r="Z4" s="45">
         <f>RANK(X4,X$4:X$220)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="29">
+    <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="49">
         <f>L4*L$3</f>
         <v>0</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="49">
         <f t="shared" ref="M5:V5" si="0">M4*M$3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="49">
         <f t="shared" ref="U5" si="1">U4*U$3</f>
         <v>0</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="80"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" s="40" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
-    </row>
-    <row r="7" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
-    </row>
-    <row r="8" spans="1:26" s="40" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="39"/>
-    </row>
-    <row r="9" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="39"/>
-    </row>
-    <row r="10" spans="1:26" s="40" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="39"/>
-    </row>
-    <row r="11" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="39"/>
-    </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="39"/>
-    </row>
-    <row r="13" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="38"/>
-    </row>
-    <row r="14" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="38"/>
-    </row>
-    <row r="16" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="39"/>
-    </row>
-    <row r="17" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="38"/>
-    </row>
-    <row r="18" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="39"/>
-    </row>
-    <row r="19" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
-    </row>
-    <row r="20" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="39"/>
-    </row>
-    <row r="21" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="38"/>
-    </row>
-    <row r="22" spans="1:26" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="39"/>
-    </row>
-    <row r="23" spans="1:26" s="40" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="38"/>
-    </row>
-    <row r="24" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="39"/>
-    </row>
-    <row r="25" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="40"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="36"/>
+    </row>
+    <row r="6" spans="1:26" s="37" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="36"/>
+    </row>
+    <row r="7" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="36"/>
+    </row>
+    <row r="8" spans="1:26" s="37" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="36"/>
+    </row>
+    <row r="9" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="36"/>
+    </row>
+    <row r="10" spans="1:26" s="37" customFormat="1" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="36"/>
+    </row>
+    <row r="11" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="36"/>
+    </row>
+    <row r="12" spans="1:26" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="36"/>
+    </row>
+    <row r="13" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="35"/>
+    </row>
+    <row r="14" spans="1:26" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="36"/>
+    </row>
+    <row r="15" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35"/>
+    </row>
+    <row r="16" spans="1:26" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="36"/>
+    </row>
+    <row r="17" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="35"/>
+    </row>
+    <row r="18" spans="1:26" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="36"/>
+    </row>
+    <row r="19" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="35"/>
+    </row>
+    <row r="20" spans="1:26" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="36"/>
+    </row>
+    <row r="21" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="35"/>
+    </row>
+    <row r="22" spans="1:26" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="36"/>
+    </row>
+    <row r="23" spans="1:26" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="35"/>
+    </row>
+    <row r="24" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="36"/>
+    </row>
+    <row r="25" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="37"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:Z12" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -2209,787 +2236,787 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="12" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" style="12" customWidth="1"/>
-    <col min="4" max="12" width="10.7109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="12" customWidth="1"/>
-    <col min="14" max="28" width="0" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="12" hidden="1"/>
+    <col min="1" max="1" width="13.44140625" style="10" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="10" customWidth="1"/>
+    <col min="4" max="12" width="10.6640625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="10" customWidth="1"/>
+    <col min="14" max="28" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="10" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" s="19" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-    </row>
-    <row r="3" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" s="19" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-    </row>
-    <row r="4" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="1:13" s="19" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-    </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="1:13" s="21" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="56" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:13" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="1:13" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-    </row>
-    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="58" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="60" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="47">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="44">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="60" t="str">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="59" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,4)</f>
         <v>кличка</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-    </row>
-    <row r="17" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+    </row>
+    <row r="17" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="60" t="str">
+      <c r="B17" s="59" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,3)</f>
         <v>порода</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="64" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="60" t="str">
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="59" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,8)</f>
         <v>000</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-    </row>
-    <row r="18" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="59" t="str">
+      <c r="B18" s="58" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,5)</f>
         <v>сука</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="61">
+      <c r="E18" s="56"/>
+      <c r="F18" s="60">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,6)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62" t="s">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63" t="str">
+      <c r="I18" s="61"/>
+      <c r="J18" s="62" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,9)</f>
         <v>000</v>
       </c>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59" t="str">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,7)</f>
         <v>000</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+    </row>
+    <row r="20" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="65" t="str">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="64" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,11)</f>
         <v>ФИО</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+    </row>
+    <row r="21" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-    </row>
-    <row r="22" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+    </row>
+    <row r="22" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="60" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="67" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-    </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+    </row>
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-    </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+    </row>
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B25" s="67">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="57" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="65" t="str">
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="64" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,25)</f>
         <v>---</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-    </row>
-    <row r="26" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+    </row>
+    <row r="26" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-    </row>
-    <row r="27" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+    </row>
+    <row r="27" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="70" t="s">
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-    </row>
-    <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+    </row>
+    <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-    </row>
-    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-    </row>
-    <row r="32" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+    </row>
+    <row r="32" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="57" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-    </row>
-    <row r="33" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+    </row>
+    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-    </row>
-    <row r="35" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="57" t="s">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="76" t="s">
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="74" t="s">
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75">
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="74">
         <v>44814</v>
       </c>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+    </row>
+    <row r="39" spans="1:26" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-    </row>
-    <row r="41" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="60" t="str">
+      <c r="B42" s="59" t="str">
         <f>B17</f>
         <v>порода</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-    </row>
-    <row r="43" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+    </row>
+    <row r="43" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="60" t="str">
+      <c r="B43" s="59" t="str">
         <f>E16</f>
         <v>кличка</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="24" t="str">
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="22" t="str">
         <f>B18</f>
         <v>сука</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77" t="s">
+    <row r="44" spans="1:26" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78" t="str">
+      <c r="B44" s="76"/>
+      <c r="C44" s="77" t="str">
         <f>D19</f>
         <v>000</v>
       </c>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="77" t="s">
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="77"/>
-      <c r="H44" s="79" t="str">
+      <c r="G44" s="76"/>
+      <c r="H44" s="78" t="str">
         <f>VLOOKUP($M$15,'ОБ-0 Сводная'!$A$4:$Z$120,10)</f>
         <v>ФИО</v>
       </c>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+    </row>
+    <row r="45" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -3056,7 +3083,7 @@
     <mergeCell ref="A13:L13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.6692913385826772" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>